--- a/Partition_function/Heat_capacity_H2O.xlsx
+++ b/Partition_function/Heat_capacity_H2O.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73d8024af7096dc3/CDLC/강의 자료/2022-1/물리화학 3/Physical_chemistry_3/Partition_function/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3266148F-4FE1-484D-8C83-E160364A9F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3266148F-4FE1-484D-8C83-E160364A9F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7DD6F0-535C-46D9-A99B-B015AE07320A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C566B0C1-7037-4F8E-AD37-F20E313CB949}"/>
+    <workbookView xWindow="25665" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{C566B0C1-7037-4F8E-AD37-F20E313CB949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C_V / R</t>
+    <t>C_P / (N * k_B)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +151,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,7 +1519,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C_V / R</c:v>
+                  <c:v>C_P / (N * k_B)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4234,14 +4237,14 @@
   <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="42.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="3" customWidth="1"/>
     <col min="4" max="5" width="9" style="3"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="9.25" customWidth="1"/>
@@ -4256,7 +4259,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
